--- a/eg1_time.xlsx
+++ b/eg1_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE82B11-BE7E-D944-A0F1-E7F4CB2929A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33AA77-859D-1C49-BF09-BD84D5105D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817EBE87-2CE1-004C-9478-04FC4CE6C5FA}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,10 +1221,10 @@
         <v>22</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>9</v>
@@ -1279,8 +1279,8 @@
         <v>1</v>
       </c>
       <c r="I17" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($H$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($I$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($H$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>3335.326700985428</v>
+        <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($H$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($I$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($H$2,(ROW()-$A$15)*4,0,4,1))/3600</f>
+        <v>0.92647963916261888</v>
       </c>
       <c r="J17">
         <f ca="1">AVERAGE(OFFSET(J$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1339,8 +1339,8 @@
      OFFSET($H$2, (ROW()-$A$15)*4, 0, 4, 1)&lt;&gt;0,
      OFFSET($I$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
-)</f>
-        <v>634.82529823400512</v>
+)/3600</f>
+        <v>0.17634036062055697</v>
       </c>
       <c r="T17" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">STDEV(

--- a/eg1_time.xlsx
+++ b/eg1_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33AA77-859D-1C49-BF09-BD84D5105D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DBA6B-F676-9940-9E3F-F9D902FC0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>num_layers</t>
   </si>
@@ -69,21 +69,9 @@
     <t>seed</t>
   </si>
   <si>
-    <t>dreal_positive</t>
-  </si>
-  <si>
-    <t>dreal_stability</t>
-  </si>
-  <si>
     <t>dreal_inclusion</t>
   </si>
   <si>
-    <t>dreal_positive_suc</t>
-  </si>
-  <si>
-    <t>dreal_stability_suc</t>
-  </si>
-  <si>
     <t>dreal_inclusion_suc</t>
   </si>
   <si>
@@ -103,30 +91,6 @@
   </si>
   <si>
     <t>gpu_inclusion</t>
-  </si>
-  <si>
-    <t>cpu_positive_suc</t>
-  </si>
-  <si>
-    <t>cpu_positive</t>
-  </si>
-  <si>
-    <t>gpu_positive_suc</t>
-  </si>
-  <si>
-    <t>gpu_positive</t>
-  </si>
-  <si>
-    <t>cpu_stability_suc</t>
-  </si>
-  <si>
-    <t>cpu_stability</t>
-  </si>
-  <si>
-    <t>gpu_stability_suc</t>
-  </si>
-  <si>
-    <t>gpu_stability</t>
   </si>
   <si>
     <t>cpu_positive_std</t>
@@ -537,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817EBE87-2CE1-004C-9478-04FC4CE6C5FA}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="182" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,40 +532,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -1185,40 +1149,40 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>2</v>
@@ -1227,22 +1191,22 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">

--- a/eg1_time.xlsx
+++ b/eg1_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202DBA6B-F676-9940-9E3F-F9D902FC0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E793BF2B-1F99-1A4D-B172-C3593938972C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817EBE87-2CE1-004C-9478-04FC4CE6C5FA}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="182" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,37 +582,37 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>49.833917617797802</v>
+        <v>3820.15888452529</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>3.4102916717529297E-2</v>
+        <v>5.5259227752685498E-2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.119648933410644</v>
+        <v>0.109377861022949</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4109.2167747020703</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.36527419090270902</v>
+        <v>0.73365521430969205</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.196465253829956</v>
+        <v>0.412328481674194</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -629,37 +629,37 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>80.064640522003103</v>
+        <v>4266.6429929733204</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2.91059017181396E-2</v>
+        <v>3.62665653228759E-2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.87980365753173E-2</v>
+        <v>0.12814521789550701</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3596.39468264579</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.29989027976989702</v>
+        <v>0.77828001976013095</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.19572639465332001</v>
+        <v>0.40200829505920399</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -676,37 +676,37 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>43.4583287239074</v>
+        <v>2532.4560689926102</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.2994041442871E-2</v>
+        <v>3.3972501754760701E-2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.2707395553588798E-2</v>
+        <v>0.12909579277038499</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2874.3191368579801</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.34331941604614202</v>
+        <v>0.86733198165893499</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.186509609222412</v>
+        <v>0.35200810432433999</v>
       </c>
       <c r="N4">
         <v>200</v>
@@ -723,37 +723,37 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>45.835075855255099</v>
+        <v>4543.8263599872498</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2.6587247848510701E-2</v>
+        <v>3.5165786743164E-2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.5887660980224595E-2</v>
+        <v>0.12880516052245999</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2761.3762097358699</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.28809094429016102</v>
+        <v>0.84996533393859797</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.19722652435302701</v>
+        <v>0.37685632705688399</v>
       </c>
       <c r="N5">
         <v>300</v>
@@ -776,13 +776,13 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>5.1316261291503899E-2</v>
+        <v>0.11071276664733801</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.107505083084106</v>
+        <v>0.159806728363037</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1.49319076538085</v>
+        <v>6.3359572887420601</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.32875657081603998</v>
+        <v>1.1604533195495601</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>5.7716369628906201E-2</v>
+        <v>7.0202112197875893E-2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.12090945243835401</v>
+        <v>0.16474342346191401</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -841,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1.65151095390319</v>
+        <v>6.0033383369445801</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.34568572044372498</v>
+        <v>1.1555263996124201</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -870,13 +870,13 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>7.6271057128906194E-2</v>
+        <v>0.106157779693603</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.14235496520995999</v>
+        <v>0.15843439102172799</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -888,13 +888,13 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>1.73982334136962</v>
+        <v>6.0201988220214799</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.37763166427612299</v>
+        <v>1.1301288604736299</v>
       </c>
       <c r="N8">
         <v>200</v>
@@ -917,13 +917,13 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>8.4296941757202107E-2</v>
+        <v>8.13877582550048E-2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.137360334396362</v>
+        <v>0.11827039718627901</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1.56372642517089</v>
+        <v>6.1670665740966797</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38631582260131803</v>
+        <v>1.14955902099609</v>
       </c>
       <c r="N9">
         <v>300</v>
@@ -964,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>9.3705415725707994E-2</v>
+        <v>0.124719858169555</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.123439073562622</v>
+        <v>0.12543988227844199</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>6.3594949245452801</v>
+        <v>16.690310239791799</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.97597455978393499</v>
+        <v>2.1453514099121</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1011,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.128079414367675</v>
+        <v>0.13315391540527299</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.17458844184875399</v>
+        <v>0.17728233337402299</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>7.2386202812194798</v>
+        <v>16.720914363860999</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.94159507751464799</v>
+        <v>2.1088154315948402</v>
       </c>
       <c r="N11">
         <v>100</v>
@@ -1058,13 +1058,13 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.12945461273193301</v>
+        <v>0.17649340629577601</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.162002563476562</v>
+        <v>0.18838763236999501</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>7.3768038749694798</v>
+        <v>15.586296081542899</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.0955879688262899</v>
+        <v>2.0418350696563698</v>
       </c>
       <c r="N12">
         <v>200</v>
@@ -1105,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.13083148002624501</v>
+        <v>0.18110227584838801</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.148067951202392</v>
+        <v>0.18572282791137601</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1123,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>7.4427323341369602</v>
+        <v>18.120283365249598</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.0238387584686199</v>
+        <v>2.2245230674743599</v>
       </c>
       <c r="N13">
         <v>300</v>
@@ -1219,8 +1219,8 @@
         <v>1</v>
       </c>
       <c r="C17" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($C$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>54.797990679740856</v>
+        <f t="array" aca="1" ref="C17" ca="1">SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($C$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1))/3600</f>
+        <v>1.0529919657276714</v>
       </c>
       <c r="D17">
         <f ca="1">AVERAGE(OFFSET(D$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E17" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($E$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>2.8197526931762647E-2</v>
+        <v>4.0166020393371527E-2</v>
       </c>
       <c r="F17">
         <f ca="1">AVERAGE(OFFSET(F$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1236,15 +1236,15 @@
       </c>
       <c r="G17" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($G$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.10176050662994368</v>
+        <v>0.12385600805282525</v>
       </c>
       <c r="H17">
         <f ca="1">AVERAGE(OFFSET(H$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>1</v>
-      </c>
-      <c r="I17" cm="1">
+        <v>0</v>
+      </c>
+      <c r="I17" t="e" cm="1">
         <f t="array" aca="1" ref="I17" ca="1">SUM(OFFSET($H$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($I$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($H$2,(ROW()-$A$15)*4,0,4,1))/3600</f>
-        <v>0.92647963916261888</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J17">
         <f ca="1">AVERAGE(OFFSET(J$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="K17" cm="1">
         <f t="array" aca="1" ref="K17" ca="1">SUM(OFFSET($J$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($K$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($J$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.32414370775222734</v>
+        <v>0.80730813741683893</v>
       </c>
       <c r="L17">
         <f ca="1">AVERAGE(OFFSET(L$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($M$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.19398194551467876</v>
+        <v>0.38580030202865545</v>
       </c>
       <c r="N17">
         <f ca="1">AVERAGE(OFFSET(N$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1276,8 +1276,8 @@
      OFFSET($B$2, (ROW()-$A$15)*4, 0, 4, 1)&lt;&gt;0,
      OFFSET($C$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
-)</f>
-        <v>17.04863035592949</v>
+)/3600</f>
+        <v>0.24729850270616868</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">STDEV(
@@ -1286,7 +1286,7 @@
      OFFSET($E$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>4.6679057843043888E-3</v>
+        <v>1.0105653004161441E-2</v>
       </c>
       <c r="R17" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">STDEV(
@@ -1295,16 +1295,16 @@
      OFFSET($G$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>1.2182243604241947E-2</v>
-      </c>
-      <c r="S17" cm="1">
+        <v>9.6602884109350303E-3</v>
+      </c>
+      <c r="S17" t="e" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">STDEV(
   IF(
      OFFSET($H$2, (ROW()-$A$15)*4, 0, 4, 1)&lt;&gt;0,
      OFFSET($I$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )/3600</f>
-        <v>0.17634036062055697</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T17" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">STDEV(
@@ -1313,7 +1313,7 @@
      OFFSET($K$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>3.6274210098963117E-2</v>
+        <v>6.242297384140541E-2</v>
       </c>
       <c r="U17" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">STDEV(
@@ -1322,7 +1322,7 @@
      OFFSET($M$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>5.0190644708954651E-3</v>
+        <v>2.7008336166003104E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E18" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($E$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>6.7400157451629597E-2</v>
+        <v>9.2115104198455422E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:F19" ca="1" si="2">AVERAGE(OFFSET(F$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="G18" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($G$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.12703245878219549</v>
+        <v>0.1503137350082395</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:H19" ca="1" si="3">AVERAGE(OFFSET(H$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="K18" cm="1">
         <f t="array" aca="1" ref="K18" ca="1">SUM(OFFSET($J$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($K$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($J$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>1.6120628714561374</v>
+        <v>6.1316402554511997</v>
       </c>
       <c r="L18">
         <f t="shared" ref="L18:L19" ca="1" si="5">AVERAGE(OFFSET(L$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="M18" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($M$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.35959744453430154</v>
+        <v>1.1489169001579251</v>
       </c>
       <c r="N18">
         <f t="shared" ref="N18:N19" ca="1" si="6">AVERAGE(OFFSET(N$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1402,7 +1402,7 @@
      OFFSET($E$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>1.54559766567131E-2</v>
+        <v>1.9479262075623945E-2</v>
       </c>
       <c r="R18" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">STDEV(
@@ -1411,7 +1411,7 @@
      OFFSET($G$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>1.5919106196346271E-2</v>
+        <v>2.1533333729871269E-2</v>
       </c>
       <c r="S18" t="e" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">STDEV(
@@ -1429,7 +1429,7 @@
      OFFSET($K$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>0.10699825313764759</v>
+        <v>0.15479131061195431</v>
       </c>
       <c r="U18" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">STDEV(
@@ -1438,7 +1438,7 @@
      OFFSET($M$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>2.6980241950400264E-2</v>
+        <v>1.3293823249516015E-2</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="E19" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($E$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($D$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.12051773071289026</v>
+        <v>0.15386736392974801</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="G19" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($G$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.15202450752258251</v>
+        <v>0.169208168983459</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="K19" cm="1">
         <f t="array" aca="1" ref="K19" ca="1">SUM(OFFSET($J$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($K$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($J$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>7.1044128537177995</v>
+        <v>16.779451012611325</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="5"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="M19" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($M$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>1.0092490911483734</v>
+        <v>2.1301312446594176</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="6"/>
@@ -1518,7 +1518,7 @@
      OFFSET($E$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>1.7910151495617678E-2</v>
+        <v>2.9053412089815517E-2</v>
       </c>
       <c r="R19" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">STDEV(
@@ -1527,7 +1527,7 @@
      OFFSET($G$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>2.1920113332208651E-2</v>
+        <v>2.9560338445284558E-2</v>
       </c>
       <c r="S19" t="e" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">STDEV(
@@ -1545,7 +1545,7 @@
      OFFSET($K$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>0.50384233449526572</v>
+        <v>1.0380787869971089</v>
       </c>
       <c r="U19" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">STDEV(
@@ -1554,7 +1554,7 @@
      OFFSET($M$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>6.671211831312461E-2</v>
+        <v>7.6140326703220088E-2</v>
       </c>
     </row>
   </sheetData>
